--- a/planilhas/coleta_jairoYago.xlsx
+++ b/planilhas/coleta_jairoYago.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,12 +561,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PLAYFOR</t>
+          <t>EVORA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Av Luís Carlos Prestes, 350 Sala 218</t>
+          <t>Estr. do Engenho d´água, 1330 Bloco 211</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -574,12 +574,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EVORA</t>
+          <t>EXIMIA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Estr. do Engenho d´água, 1330 Bloco 211</t>
+          <t>Av. Ayrton Senna, 3000 Bl Itanhangá Sl 4098</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -587,12 +587,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EXIMIA</t>
+          <t>FLEX TRADING</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Av. Ayrton Senna, 3000 Bl Itanhangá Sl 4098</t>
+          <t>Av. Emb. Abelardo Bueno, 1 Lagoa 2 Sl 304 Com. Dimension</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -600,12 +600,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>FLEX TRADING</t>
+          <t xml:space="preserve">FLYONE </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Av. Emb. Abelardo Bueno, 1 Lagoa 2 Sl 304 Com. Dimension</t>
+          <t xml:space="preserve">Av. Ayrton Senna, Rua D2 Hangar 6 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -613,12 +613,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">FLYONE </t>
+          <t>HAI INTERNACIONAL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av. Ayrton Senna, Rua D2 Hangar 6 </t>
+          <t>Av. Antonio Galotti, 605 Bloco C Sala 774</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -626,12 +626,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HAI INTERNACIONAL</t>
+          <t>INTIMISSIMI</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Av. Antonio Galotti, 605 Bloco C Sala 774</t>
+          <t>Estr. de Jacarepagua, 6069 piso 2 - loja 244</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -639,12 +639,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INTIMISSIMI</t>
+          <t>JLA</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Estr. de Jacarepagua, 6069 piso 2 - loja 244</t>
+          <t>Av. Emb. Abelardo Bueno, 600 Sala 303 Bloco Atlantic</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -652,12 +652,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>JLA</t>
+          <t>MANOELA PATACORI</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Av. Emb. Abelardo Bueno, 600 Sala 303 Bloco Atlantic</t>
+          <t>Av. das Acácias da Península, 607 Cond FontVieille</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -665,12 +665,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MANOELA PATACORI</t>
+          <t>MOBARA</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Av. das Acácias da Península, 607 Cond FontVieille</t>
+          <t>Estr do Gabinal 1177</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -678,12 +678,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MOBARA</t>
+          <t>NIPPOMED</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Estr do Gabinal 1177</t>
+          <t>Av. Emb. Abelardo Bueno, 1 Bl. Ayrton Senna 2 Sala 419C</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -691,12 +691,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NIPPOMED</t>
+          <t>OMNI AEROPORTO</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Av. Emb. Abelardo Bueno, 1 Bl. Ayrton Senna 2 Sala 419C</t>
+          <t>Av. Ayrton Senna 2541 Rua F1 Lt 01</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -704,12 +704,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>OMNI AEROPORTO</t>
+          <t>PALADUPLA</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Av. Ayrton Senna 2541 Rua F1 Lt 01</t>
+          <t>Estr. do Engenho D'água, 1330 Sala 207</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -717,12 +717,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PALADUPLA</t>
+          <t>PORTO SURGICAL</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Estr. do Engenho D'água, 1330 Sala 207</t>
+          <t>Av. Jose Silva de Azevedo Neto, 200 Bl 3 Salas 301 a 303</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -730,12 +730,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PORTO SURGICAL</t>
+          <t>PREMIUM FLEX</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Av. Jose Silva de Azevedo Neto, 200 Bl 3 Salas 301 a 303</t>
+          <t>Av. Emb. Abelardo Bueno, 1 Ed. Lagoa 1 Sala 309</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -743,12 +743,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PREMIUM FLEX</t>
+          <t>JANIKING</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Av. Emb. Abelardo Bueno, 1 Ed. Lagoa 1 Sala 309</t>
+          <t>Av.Abelardo Bueno 1 ed Boulevard  sala 203 a 204</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -756,12 +756,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>JANIKING</t>
+          <t>SEANITE</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Av.Abelardo Bueno 1 ed Boulevard  sala 203 a 204</t>
+          <t>Av. Antonio Galotti, 605 Bloco C Sala 881</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -769,12 +769,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SEANITE</t>
+          <t>SPOT</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Av. Antonio Galotti, 605 Bloco C Sala 881</t>
+          <t xml:space="preserve">Av. Emb. Abelardo Bueno, 1 Cenna 1 Sala 701 </t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -782,12 +782,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SPOT</t>
+          <t>SUPER ESSENCIA</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av. Emb. Abelardo Bueno, 1 Cenna 1 Sala 701 </t>
+          <t>Av. Genemario Dantas 1430</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -795,12 +795,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SUPER ESSENCIA</t>
+          <t>TBRAND</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Av. Genemario Dantas 1430</t>
+          <t>Av Enbaixador  Abelardo Bueno 1cond.dimension lagoa 1 sl 501</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -808,12 +808,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TBRAND</t>
+          <t>TELARIO (CONFIO)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Av Enbaixador  Abelardo Bueno 1cond.dimension lagoa 1 sl 501</t>
+          <t>Estr. do Engenho D'água, 1330 Box 209</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -821,12 +821,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TELARIO (CONFIO)</t>
+          <t xml:space="preserve">RB3 MODA </t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Estr. do Engenho D'água, 1330 Box 209</t>
+          <t>Avenida Julio de Sá Bierrenbach, 200 Bloco 1 - sala 432</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -834,12 +834,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">RB3 MODA </t>
+          <t>TOP TARGET</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Avenida Julio de Sá Bierrenbach, 200 Bloco 1 - sala 432</t>
+          <t>Av Almirante Júlio de Sá Bierrenbach 65 Bl 2 Sala 621</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -847,12 +847,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>TOP TARGET</t>
+          <t>VALENTINO</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Av Almirante Júlio de Sá Bierrenbach 65 Bl 2 Sala 621</t>
+          <t xml:space="preserve">Av. das Americas, 3900 lojas 124;125 </t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -860,12 +860,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>TYENT</t>
+          <t>VOLCANO</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Av. Jose Silva de Azevedo Neto, 200 Bl 6 Loja 116</t>
+          <t>Estr. dos Três Rios, 506</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -873,12 +873,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>VALENTINO</t>
+          <t xml:space="preserve">XN FITNESS </t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av. das Americas, 3900 lojas 124;125 </t>
+          <t xml:space="preserve">Av. Ayrton Senna, 2150 4° Andar </t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -886,12 +886,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>VOLCANO</t>
+          <t>HOUSE</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Estr. dos Três Rios, 506</t>
+          <t>Av Emb Abelardo Bueno 1111, Bl1LJ 108 ed office 2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -899,12 +899,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">XN FITNESS </t>
+          <t>THE PEPPERS</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av. Ayrton Senna, 2150 4° Andar </t>
+          <t>Av. Embaixador Abelardo Bueno, 1111 Bloco 1 Sala 341 / Bloco 2 Sala 202</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -912,12 +912,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HOUSE</t>
+          <t xml:space="preserve">GRAMA VIVA </t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Av Emb Abelardo Bueno 1111, Bl1LJ 108 ed office 2</t>
+          <t>Av Jose Wilker 600  bloco  2 sala 401</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -925,12 +925,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>THE PEPPERS</t>
+          <t>FAADI</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Av. Embaixador Abelardo Bueno, 1111 Bloco 1 Sala 341 / Bloco 2 Sala 202</t>
+          <t>Av. Érico Veríssimo, 805 Sl 203</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -938,12 +938,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">GRAMA VIVA </t>
+          <t>asset</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Av Jose Wilker 600  bloco  2 sala 401</t>
+          <t>Rua Victor Civita, 66/bl. 04/sl.219</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -951,12 +951,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>FAADI</t>
+          <t>westcon</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Av. Érico Veríssimo, 805 Sl 203</t>
+          <t>R Victor Civita, 66  Edificio 5 Bl 1 Sala 302</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -964,12 +964,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>asset</t>
+          <t xml:space="preserve">biomedical </t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Rua Victor Civita, 66/bl. 04/sl.219</t>
+          <t>Av.Paisagista Jose Silva de Azevedo Neto, 200 BL 5 SL 341/342</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -977,12 +977,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>westcon</t>
+          <t>bessie</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R Victor Civita, 66  Edificio 5 Bl 1 Sala 302</t>
+          <t>Av João Cabral de mello Neto, 850 Sl 214 bl 2 west</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -990,12 +990,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">biomedical </t>
+          <t xml:space="preserve">babi jpa </t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Av.Paisagista Jose Silva de Azevedo Neto, 200 BL 5 SL 341/342</t>
+          <t>ESTRADA DE JACAREPAGUA 6069 LOJA 204A PARK JACAREP</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -1003,12 +1003,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>bessie</t>
+          <t>bilheteria</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Av João Cabral de mello Neto, 850 Sl 214 bl 2 west</t>
+          <t xml:space="preserve">AVENIDA AYRTON SENNA 2500 OFFICE 1 SALA 311 </t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -1016,12 +1016,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">babi jpa </t>
+          <t>RECRIARE</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ESTRADA DE JACAREPAGUA 6069 LOJA 204A PARK JACAREP</t>
+          <t>Av. Vice Presidente José Alencar, 1515 Bloco 04 ap</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -1029,12 +1029,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>bilheteria</t>
+          <t>LIRIO JOIAS</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">AVENIDA AYRTON SENNA 2500 OFFICE 1 SALA 311 </t>
+          <t>Av. Emb. Abelardo Bueno, 1340 Sala 508 Barra Corpo</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -1042,12 +1042,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>RECRIARE</t>
+          <t>INOVAÇÃO</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Av. Vice Presidente José Alencar, 1515 Bloco 04 ap</t>
+          <t xml:space="preserve">Av. Emb. Abelardo Bueno, 3180 Loja 205 Elev N°1 </t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1055,12 +1055,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>LIRIO JOIAS</t>
+          <t>NANDA BIJOUX / WSX</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Av. Emb. Abelardo Bueno, 1340 Sala 508 Barra Corpo</t>
+          <t>Rua Abelardo Bueno, 3500 lj. 120</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -1068,12 +1068,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>INOVAÇÃO</t>
+          <t>SABRINA</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av. Emb. Abelardo Bueno, 3180 Loja 205 Elev N°1 </t>
+          <t xml:space="preserve"> Av Olof palme 765 sala 214</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -1081,12 +1081,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>NANDA BIJOUX / WSX</t>
+          <t>ALEXIA</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Rua Abelardo Bueno, 3500 lj. 120</t>
+          <t>Estrada dos bandeirantes 7217 bloco 1 apt 208</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -1094,12 +1094,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SABRINA</t>
+          <t>PATINS</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Av Olof palme 765 sala 214</t>
+          <t xml:space="preserve">Est. dos Bandeirantes 7967 </t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -1107,12 +1107,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ALEXIA</t>
+          <t>KADOSHI</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Estrada dos bandeirantes 7217 bloco 1 apt 208</t>
+          <t>Estr. de Camorim, 688 1° Andar</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -1120,12 +1120,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PATINS</t>
+          <t>HOLLIDAY</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Est. dos Bandeirantes 7967 </t>
+          <t>Estrada Marechal Miguel Salazar Mendes de Moraes 2 bl: J Apto 107 Cond. Kecil Ban</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -1133,12 +1133,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>KADOSHI</t>
+          <t>JAPERSO</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Estr. de Camorim, 688 1° Andar</t>
+          <t>Estrada Rodrigues Caldas 1407 sala 202</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -1146,12 +1146,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HOLLIDAY</t>
+          <t>FARMAC CHARIOT</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Estrada Marechal Miguel Salazar Mendes de Moraes 2 bl: J Apto 107 Cond. Kecil Ban</t>
+          <t>Av Nelson Cardoso 1149 sobreloja 201</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -1159,12 +1159,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>JAPERSO</t>
+          <t>SUPRITE</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Estrada Rodrigues Caldas 1407 sala 202</t>
+          <t>Estr. do Tindiba, 2828 Sala 517/518</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -1172,12 +1172,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>FARMAC CHARIOT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Av Nelson Cardoso 1149 sobreloja 201</t>
+          <t>Rua  Godofredo Viana, 300</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -1185,12 +1185,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SUPRITE</t>
+          <t>MARYFASHION</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Estr. do Tindiba, 2828 Sala 517/518</t>
+          <t xml:space="preserve">Rua Apiacás, 388 (em frente a loja CASAS BAHIA) </t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -1198,12 +1198,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>GULE</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Rua  Godofredo Viana, 300</t>
+          <t>Estrada do Tindiba 2828 Sala 311</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -1211,12 +1211,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MARYFASHION</t>
+          <t>POAH</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua Apiacás, 388 (em frente a loja CASAS BAHIA) </t>
+          <t>Estr. do Tindiba 2828 Sala 416</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -1224,12 +1224,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>GULE</t>
+          <t>PRATA CARIOCA</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Estrada do Tindiba 2828 Sala 311</t>
+          <t xml:space="preserve">Estrada do Tindiba 3250 - sala 503/504 Edifício Live Offices </t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -1237,12 +1237,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>POAH</t>
+          <t>FOFURICES</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Estr. do Tindiba 2828 Sala 416</t>
+          <t>Rua dos Sábios, 100</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -1250,12 +1250,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PRATA CARIOCA</t>
+          <t>TEM CANECA</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estrada do Tindiba 3250 - sala 503/504 Edifício Live Offices </t>
+          <t>R. dos Filósofos, 15 Quadra 15</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -1263,12 +1263,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>FOFURICES</t>
+          <t>ROSA VERMELHA</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Rua dos Sábios, 100</t>
+          <t>EST DO ENGENHO VELHO 1623</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -1276,12 +1276,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TEM CANECA</t>
+          <t>KINGDOM</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R. dos Filósofos, 15 Quadra 15</t>
+          <t xml:space="preserve">Av dos Mananciais 505 Ap 303 </t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -1289,12 +1289,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ROSA VERMELHA</t>
+          <t>GOSTEI AMEI</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>EST DO ENGENHO VELHO 1623</t>
+          <t xml:space="preserve"> Rua Atali Aguiar, 13 cs3 (Zita costureira) </t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -1302,12 +1302,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>KINGDOM</t>
+          <t>KPALOA</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av dos Mananciais 505 Ap 303 </t>
+          <t>Estr do rio grande, 383</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -1315,12 +1315,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>GOSTEI AMEI</t>
+          <t>SUPER ESSENCIAS</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rua Atali Aguiar, 13 cs3 (Zita costureira) </t>
+          <t>ESTRADA DOS BANDEIRANTES 304 LOJA 8</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -1328,12 +1328,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>KPALOA</t>
+          <t>R2S</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Estr do rio grande, 383</t>
+          <t>Estr do Guerenguê, 630 LOJA</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -1341,12 +1341,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SUPER ESSENCIAS</t>
+          <t>LOTUSFARMA</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ESTRADA DOS BANDEIRANTES 304 LOJA 8</t>
+          <t xml:space="preserve">Estr dos bandeirantes 3438 F </t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -1354,12 +1354,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>R2S</t>
+          <t>RAMAS</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Estr do Guerenguê, 630 LOJA</t>
+          <t>Estrada do Outeiro Santo, 120</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -1367,12 +1367,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>LOTUSFARMA</t>
+          <t>MANE</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estr dos bandeirantes 3438 F </t>
+          <t>Estrada do Guerengue, nº 1421</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -1380,12 +1380,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>RAMAS</t>
+          <t>MARIA MONTILO</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Estrada do Outeiro Santo, 120</t>
+          <t>Rua Macembu - 655</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -1393,12 +1393,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MANE</t>
+          <t>BASTOS LEILOES</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Estrada do Guerengue, nº 1421</t>
+          <t>Rua da Névoa, 15</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -1406,12 +1406,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MARIA MONTILO</t>
+          <t>LA PASSION</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Rua Macembu - 655</t>
+          <t>Rua Florai, 10 -  201 Casa encima do Açougue são Tho</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -1419,12 +1419,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BASTOS LEILOES</t>
+          <t>TODA ZEN</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Rua da Névoa, 15</t>
+          <t>RUA HERCULANDIA 163</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -1432,12 +1432,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>LA PASSION</t>
+          <t xml:space="preserve">GALPAOZ </t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Rua Florai, 10 -  201 Casa encima do Açougue são Tho</t>
+          <t>Rua  da Gondola 177 proximo a praça do Bandolim</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -1445,12 +1445,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>TODA ZEN</t>
+          <t xml:space="preserve">HEY BAG </t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>RUA HERCULANDIA 163</t>
+          <t xml:space="preserve">Av. Almt Julio de Sa Bierrenbach, 65 Sl 501 Bl 4 </t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -1458,12 +1458,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t xml:space="preserve">GALPAOZ </t>
+          <t xml:space="preserve">REDE MAIS </t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Rua  da Gondola 177 proximo a praça do Bandolim</t>
+          <t>Av Almirante Júlio de Sá Bierrenbach 65 bloco 1 sa</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -1471,12 +1471,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve">HEY BAG </t>
+          <t>DODGER</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Av. Almt Julio de Sa Bierrenbach, 65 Sl 501 Bl 4 </t>
+          <t>AV JOSE WILKER, 600 - Bloco 5 Sala 315/316</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -1484,12 +1484,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t xml:space="preserve">REDE MAIS </t>
+          <t>MASTERCOIN</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Av Almirante Júlio de Sá Bierrenbach 65 bloco 1 sa</t>
+          <t>Rua Luis Sergio Person, 141</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -1497,12 +1497,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>DODGER</t>
+          <t>CINETICA FILMES</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>AV JOSE WILKER, 600 - Bloco 5 Sala 315/316</t>
+          <t>RUA: Carlos Machado, 155, sala 201.</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -1510,12 +1510,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SAMIRA</t>
+          <t>VELLOZIA</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Av Ator José Wilker 605, Ásia Tower Bl 1 Sl 660</t>
+          <t xml:space="preserve">Rua </t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -1523,12 +1523,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MASTERCOIN</t>
+          <t xml:space="preserve">Ticiane </t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Rua Luis Sergio Person, 141</t>
+          <t>Rua</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -1536,15 +1536,28 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>CINETICA FILMES</t>
+          <t>lapassion</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>RUA: Carlos Machado, 155, sala 201.</t>
+          <t>Rua</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>cariocando</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
